--- a/askisi1/out_w1/clean.xlsx
+++ b/askisi1/out_w1/clean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I401"/>
+  <dimension ref="A1:E401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>temp_raw</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>hum_raw</t>
+          <t>humidity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -457,26 +457,6 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>hum_cal</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>temp_delta</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>hum_delta</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>temp_delta_pct</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>hum_delta_pct</t>
         </is>
       </c>
     </row>
@@ -498,18 +478,6 @@
       <c r="E2" t="n">
         <v>62.64077717233708</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.0221330195582822</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0996385841343828</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -529,18 +497,6 @@
       <c r="E3" t="n">
         <v>63.39132049101013</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.014294584095662</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0667052980176159</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,18 +516,6 @@
       <c r="E4" t="n">
         <v>64.63213138674351</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.028400542437069</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.124345337073331</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -591,18 +535,6 @@
       <c r="E5" t="n">
         <v>62.1924398048649</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.0313011266325737</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1353263042349833</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -622,18 +554,6 @@
       <c r="E6" t="n">
         <v>64.00665217152249</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.0126250382057655</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0593770061715303</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -653,18 +573,6 @@
       <c r="E7" t="n">
         <v>62.41259209045424</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.018725907917112</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.085613579550021</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -684,18 +592,6 @@
       <c r="E8" t="n">
         <v>62.68470504262197</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.0302871501096895</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1315190625932164</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -715,18 +611,6 @@
       <c r="E9" t="n">
         <v>64.54992851126993</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.0287203564139133</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.125569743175541</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -746,18 +630,6 @@
       <c r="E10" t="n">
         <v>58.87146820547069</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.0323473889873433</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1392199375612768</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -777,18 +649,6 @@
       <c r="E11" t="n">
         <v>60.22695886194759</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.0280122689456447</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.1228542177803724</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -808,18 +668,6 @@
       <c r="E12" t="n">
         <v>59.81348436955541</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.0416440722553979</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.1723364114282264</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -839,18 +687,6 @@
       <c r="E13" t="n">
         <v>58.06423510676613</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.0424221781967162</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.1749929751158835</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -870,18 +706,6 @@
       <c r="E14" t="n">
         <v>61.32423706480191</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.0389123587907036</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.1628729421435758</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -901,18 +725,6 @@
       <c r="E15" t="n">
         <v>64.12464704745364</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.0477950421757782</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.1928813496674956</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -932,18 +744,6 @@
       <c r="E16" t="n">
         <v>61.99676980083993</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.0446113871705868</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.1823765757048598</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -963,18 +763,6 @@
       <c r="E17" t="n">
         <v>62.8986552180612</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.0367370780599891</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.1551809220635898</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -994,18 +782,6 @@
       <c r="E18" t="n">
         <v>64.61386101070052</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.0467241180322268</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.1893779919242595</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1025,18 +801,6 @@
       <c r="E19" t="n">
         <v>65.01900083057266</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.0387974759219922</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.1624702094199107</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1056,18 +820,6 @@
       <c r="E20" t="n">
         <v>62.14944688863461</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.0530002965343818</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.2094870925464701</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1087,18 +839,6 @@
       <c r="E21" t="n">
         <v>64.91492272235814</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.0478165215262791</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.1929513061993685</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1118,18 +858,6 @@
       <c r="E22" t="n">
         <v>62.30801105662377</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.0481588888983601</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.1940647345422523</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1149,18 +877,6 @@
       <c r="E23" t="n">
         <v>60.36099356199698</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.0459441288236561</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.1868071787011371</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1180,18 +896,6 @@
       <c r="E24" t="n">
         <v>60.75509612795743</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.0604956754108343</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.2322329355964355</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1211,18 +915,6 @@
       <c r="E25" t="n">
         <v>58.88705645228837</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.0520517530595867</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.2065121643779293</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1242,18 +934,6 @@
       <c r="E26" t="n">
         <v>59.97227366843176</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.0512978752534643</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2041317508225031</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1273,18 +953,6 @@
       <c r="E27" t="n">
         <v>60.92915471439693</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.0529599296969607</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.2093609440847246</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1304,18 +972,6 @@
       <c r="E28" t="n">
         <v>63.14529732355703</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.0602445878830941</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.2314921834614948</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1335,18 +991,6 @@
       <c r="E29" t="n">
         <v>64.86895835295485</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.0601338709340382</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.2311650947956964</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1366,18 +1010,6 @@
       <c r="E30" t="n">
         <v>58.54876104441706</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.0614849608269878</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.2351376562251681</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1397,18 +1029,6 @@
       <c r="E31" t="n">
         <v>61.98096214285359</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.0625933690543085</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.2383661448867854</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1428,18 +1048,6 @@
       <c r="E32" t="n">
         <v>58.99294593884004</v>
       </c>
-      <c r="F32" t="n">
-        <v>0.07551169038184111</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.2740779902195336</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1459,18 +1067,6 @@
       <c r="E33" t="n">
         <v>61.89876574608712</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.0585775980222571</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.2265377916350488</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1490,18 +1086,6 @@
       <c r="E34" t="n">
         <v>60.55921671323164</v>
       </c>
-      <c r="F34" t="n">
-        <v>0.0586980658379197</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.2268979694447958</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1521,18 +1105,6 @@
       <c r="E35" t="n">
         <v>57.0283489059817</v>
       </c>
-      <c r="F35" t="n">
-        <v>0.0574066792645595</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.2230193848449343</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1552,18 +1124,6 @@
       <c r="E36" t="n">
         <v>62.41235039777704</v>
       </c>
-      <c r="F36" t="n">
-        <v>0.0681915167265678</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.2542642569716046</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1583,18 +1143,6 @@
       <c r="E37" t="n">
         <v>59.20825114738847</v>
       </c>
-      <c r="F37" t="n">
-        <v>0.07251551797996569</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.2660968392460377</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1614,18 +1162,6 @@
       <c r="E38" t="n">
         <v>59.20992527293727</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.06450388258238959</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.2438674319357012</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1645,18 +1181,6 @@
       <c r="E39" t="n">
         <v>57.99474952560488</v>
       </c>
-      <c r="F39" t="n">
-        <v>0.0600642908183708</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.2309593932691041</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1676,18 +1200,6 @@
       <c r="E40" t="n">
         <v>58.67935186149476</v>
       </c>
-      <c r="F40" t="n">
-        <v>0.0607723189223712</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.233047430699354</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1707,18 +1219,6 @@
       <c r="E41" t="n">
         <v>60.69458047569093</v>
       </c>
-      <c r="F41" t="n">
-        <v>0.0716499747118071</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.2637584442546711</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1738,18 +1238,6 @@
       <c r="E42" t="n">
         <v>59.30849240180899</v>
       </c>
-      <c r="F42" t="n">
-        <v>0.0728040310222013</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.2668730031202375</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1769,18 +1257,6 @@
       <c r="E43" t="n">
         <v>60.1898715910069</v>
       </c>
-      <c r="F43" t="n">
-        <v>0.07186154589236431</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.2643314105217967</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1800,18 +1276,6 @@
       <c r="E44" t="n">
         <v>60.0994289728371</v>
       </c>
-      <c r="F44" t="n">
-        <v>0.0638114453459479</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.2418827782936773</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1831,18 +1295,6 @@
       <c r="E45" t="n">
         <v>61.85750500364416</v>
       </c>
-      <c r="F45" t="n">
-        <v>0.0704576157396061</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.2605125965742526</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1862,18 +1314,6 @@
       <c r="E46" t="n">
         <v>58.36885350286836</v>
       </c>
-      <c r="F46" t="n">
-        <v>0.0699633267092956</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.2591586329969731</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1893,18 +1333,6 @@
       <c r="E47" t="n">
         <v>55.93669221506278</v>
       </c>
-      <c r="F47" t="n">
-        <v>0.07094264070114061</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.2618363817432224</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1924,18 +1352,6 @@
       <c r="E48" t="n">
         <v>60.85866416801567</v>
       </c>
-      <c r="F48" t="n">
-        <v>0.075728108232461</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.2746477633996477</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1955,18 +1371,6 @@
       <c r="E49" t="n">
         <v>57.89297663957729</v>
       </c>
-      <c r="F49" t="n">
-        <v>0.0713603391554862</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.2629726192765317</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1986,18 +1390,6 @@
       <c r="E50" t="n">
         <v>60.61488756471015</v>
       </c>
-      <c r="F50" t="n">
-        <v>0.0746652403483416</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.2718408789319243</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2017,18 +1409,6 @@
       <c r="E51" t="n">
         <v>58.9803176235887</v>
       </c>
-      <c r="F51" t="n">
-        <v>0.0704540688376695</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.2605028984790651</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2048,18 +1428,6 @@
       <c r="E52" t="n">
         <v>57.77735612927619</v>
       </c>
-      <c r="F52" t="n">
-        <v>0.0720234483249981</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.2647692644457201</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2079,18 +1447,6 @@
       <c r="E53" t="n">
         <v>58.56155488225243</v>
       </c>
-      <c r="F53" t="n">
-        <v>0.07438763609119541</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.2711041836683647</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2110,18 +1466,6 @@
       <c r="E54" t="n">
         <v>61.58880221831357</v>
       </c>
-      <c r="F54" t="n">
-        <v>0.0596879732815835</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.2298449655843818</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2141,18 +1485,6 @@
       <c r="E55" t="n">
         <v>61.66201313840976</v>
       </c>
-      <c r="F55" t="n">
-        <v>0.0675203304469249</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.2523932679588303</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2172,18 +1504,6 @@
       <c r="E56" t="n">
         <v>57.46669002640768</v>
       </c>
-      <c r="F56" t="n">
-        <v>0.0662860337257349</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.2489279396230276</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2203,18 +1523,6 @@
       <c r="E57" t="n">
         <v>57.46688580818203</v>
       </c>
-      <c r="F57" t="n">
-        <v>0.0648779370373446</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.2449352247416445</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2234,18 +1542,6 @@
       <c r="E58" t="n">
         <v>59.11636421205917</v>
       </c>
-      <c r="F58" t="n">
-        <v>0.0671465789040333</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.2513473284198563</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2254,7 +1550,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>27.92109847877319</v>
+        <v>27.57324716397884</v>
       </c>
       <c r="C59" t="n">
         <v>55.08884540611582</v>
@@ -2265,18 +1561,6 @@
       <c r="E59" t="n">
         <v>55.08884540611582</v>
       </c>
-      <c r="F59" t="n">
-        <v>-0.272118843154562</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>-0.9745993459442091</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2296,18 +1580,6 @@
       <c r="E60" t="n">
         <v>57.26159859044925</v>
       </c>
-      <c r="F60" t="n">
-        <v>0.0623110505193693</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.2375464182541877</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2327,18 +1599,6 @@
       <c r="E61" t="n">
         <v>56.35813237613006</v>
       </c>
-      <c r="F61" t="n">
-        <v>0.074727312773227</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.2720054006239659</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2358,18 +1618,6 @@
       <c r="E62" t="n">
         <v>56.85128812590108</v>
       </c>
-      <c r="F62" t="n">
-        <v>0.0556992141463261</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.2178309946406494</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2389,18 +1637,6 @@
       <c r="E63" t="n">
         <v>54.36966511588081</v>
       </c>
-      <c r="F63" t="n">
-        <v>0.0646179541111635</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.2441933856234811</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2420,18 +1656,6 @@
       <c r="E64" t="n">
         <v>52.66962053036653</v>
       </c>
-      <c r="F64" t="n">
-        <v>0.0675376889961327</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.2524417746507096</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2451,18 +1675,6 @@
       <c r="E65" t="n">
         <v>51.51466789179608</v>
       </c>
-      <c r="F65" t="n">
-        <v>0.06989222265226749</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.258963455728465</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2482,18 +1694,6 @@
       <c r="E66" t="n">
         <v>53.23737719956257</v>
       </c>
-      <c r="F66" t="n">
-        <v>0.07011208652733809</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.2595666392745543</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2513,18 +1713,6 @@
       <c r="E67" t="n">
         <v>54.36604209541777</v>
       </c>
-      <c r="F67" t="n">
-        <v>0.0699870004092453</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.2592235933699004</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2544,18 +1732,6 @@
       <c r="E68" t="n">
         <v>54.50809861973755</v>
       </c>
-      <c r="F68" t="n">
-        <v>0.0612484929227434</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.2344453444975718</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2575,18 +1751,6 @@
       <c r="E69" t="n">
         <v>58.77998053182395</v>
       </c>
-      <c r="F69" t="n">
-        <v>0.0596657718412352</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.2297791172789459</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2606,18 +1770,6 @@
       <c r="E70" t="n">
         <v>56.92859407451817</v>
       </c>
-      <c r="F70" t="n">
-        <v>0.06807817971882101</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.2539489778326091</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2637,18 +1789,6 @@
       <c r="E71" t="n">
         <v>52.60367234177496</v>
       </c>
-      <c r="F71" t="n">
-        <v>0.0598616037418935</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.2303595563173348</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2668,18 +1808,6 @@
       <c r="E72" t="n">
         <v>55.03478214112325</v>
       </c>
-      <c r="F72" t="n">
-        <v>0.0513584510196842</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.2043235499396934</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2699,18 +1827,6 @@
       <c r="E73" t="n">
         <v>53.33708801031489</v>
       </c>
-      <c r="F73" t="n">
-        <v>0.0514028068783964</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.2044639338623635</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2730,18 +1846,6 @@
       <c r="E74" t="n">
         <v>53.39486959614019</v>
       </c>
-      <c r="F74" t="n">
-        <v>0.0519081989523861</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.2060599820421002</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2761,18 +1865,6 @@
       <c r="E75" t="n">
         <v>54.1471795958448</v>
       </c>
-      <c r="F75" t="n">
-        <v>0.060795006579422</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.233114151136587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2780,7 +1872,9 @@
           <t>2024-05-01 12:20:00</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>26.03871728921667</v>
+      </c>
       <c r="C76" t="n">
         <v>54.82848416191302</v>
       </c>
@@ -2790,14 +1884,6 @@
       <c r="E76" t="n">
         <v>54.82848416191302</v>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2817,18 +1903,6 @@
       <c r="E77" t="n">
         <v>52.72602518701923</v>
       </c>
-      <c r="F77" t="n">
-        <v>0.059979339204915</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.2307080992987669</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2848,18 +1922,6 @@
       <c r="E78" t="n">
         <v>55.3475355938182</v>
       </c>
-      <c r="F78" t="n">
-        <v>0.051017868364191</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.2032439710234955</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2879,18 +1941,6 @@
       <c r="E79" t="n">
         <v>50.7522396505888</v>
       </c>
-      <c r="F79" t="n">
-        <v>0.0539473790399256</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.2124352660928405</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2910,18 +1960,6 @@
       <c r="E80" t="n">
         <v>52.86617350317666</v>
       </c>
-      <c r="F80" t="n">
-        <v>0.0560131288961898</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.2187900641568359</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2941,18 +1979,6 @@
       <c r="E81" t="n">
         <v>57.86741969704955</v>
       </c>
-      <c r="F81" t="n">
-        <v>0.0482335896924048</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.194307264186821</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2972,18 +1998,6 @@
       <c r="E82" t="n">
         <v>52.9381074049483</v>
       </c>
-      <c r="F82" t="n">
-        <v>0.0523313107544929</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.2073912690344196</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3003,18 +2017,6 @@
       <c r="E83" t="n">
         <v>55.17965191515137</v>
       </c>
-      <c r="F83" t="n">
-        <v>0.0432063752119518</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.1776531358369949</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3034,18 +2036,6 @@
       <c r="E84" t="n">
         <v>52.31903726218658</v>
       </c>
-      <c r="F84" t="n">
-        <v>0.0439768401254134</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.180250060222142</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3065,18 +2055,6 @@
       <c r="E85" t="n">
         <v>53.12192300097672</v>
       </c>
-      <c r="F85" t="n">
-        <v>0.0424981104338151</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.1752513054959014</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3096,18 +2074,6 @@
       <c r="E86" t="n">
         <v>51.67287021399085</v>
       </c>
-      <c r="F86" t="n">
-        <v>0.035426492132732</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.1504779339478884</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3127,18 +2093,6 @@
       <c r="E87" t="n">
         <v>51.27348216211619</v>
       </c>
-      <c r="F87" t="n">
-        <v>0.0458096679889195</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.1863623524807185</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3158,18 +2112,6 @@
       <c r="E88" t="n">
         <v>49.88508222277736</v>
       </c>
-      <c r="F88" t="n">
-        <v>0.0376963173271782</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.1585902455328791</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3189,18 +2131,6 @@
       <c r="E89" t="n">
         <v>52.1363833830434</v>
       </c>
-      <c r="F89" t="n">
-        <v>0.0396300548769765</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.1653801519067484</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3220,18 +2150,6 @@
       <c r="E90" t="n">
         <v>49.40651777287421</v>
       </c>
-      <c r="F90" t="n">
-        <v>0.0414489020268789</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.1716673866765604</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3251,18 +2169,6 @@
       <c r="E91" t="n">
         <v>52.27674466802974</v>
       </c>
-      <c r="F91" t="n">
-        <v>0.0397325370506784</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.1657369397558216</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3282,18 +2188,6 @@
       <c r="E92" t="n">
         <v>52.95439231630399</v>
       </c>
-      <c r="F92" t="n">
-        <v>0.039771186813855</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.1658714182564864</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3313,18 +2207,6 @@
       <c r="E93" t="n">
         <v>51.35747754949504</v>
       </c>
-      <c r="F93" t="n">
-        <v>0.0329157748507</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.1413205046837171</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3344,18 +2226,6 @@
       <c r="E94" t="n">
         <v>49.89495494644668</v>
       </c>
-      <c r="F94" t="n">
-        <v>0.0291202732054252</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.1270960129281828</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3375,18 +2245,6 @@
       <c r="E95" t="n">
         <v>51.2209500749356</v>
       </c>
-      <c r="F95" t="n">
-        <v>0.0299915373985193</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.1304027867188503</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3406,18 +2264,6 @@
       <c r="E96" t="n">
         <v>49.54385429460607</v>
       </c>
-      <c r="F96" t="n">
-        <v>0.0171939639281433</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.07916409653922001</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3437,18 +2283,6 @@
       <c r="E97" t="n">
         <v>51.88317583606043</v>
       </c>
-      <c r="F97" t="n">
-        <v>0.0173223260018495</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.07970799098525359</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3468,18 +2302,6 @@
       <c r="E98" t="n">
         <v>46.2029334833855</v>
       </c>
-      <c r="F98" t="n">
-        <v>0.0166326331221746</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.0767780591615414</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3499,18 +2321,6 @@
       <c r="E99" t="n">
         <v>49.05105951407833</v>
       </c>
-      <c r="F99" t="n">
-        <v>0.0173443763079532</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.0798013576545375</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3530,18 +2340,6 @@
       <c r="E100" t="n">
         <v>45.60012343674608</v>
       </c>
-      <c r="F100" t="n">
-        <v>0.025552807604857</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.1132896897901736</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3561,18 +2359,6 @@
       <c r="E101" t="n">
         <v>46.45412192490552</v>
       </c>
-      <c r="F101" t="n">
-        <v>0.0148425866572203</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.0690858683474225</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3592,18 +2378,6 @@
       <c r="E102" t="n">
         <v>52.03756390195106</v>
       </c>
-      <c r="F102" t="n">
-        <v>0.0169591828994946</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.0781676197008486</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3623,18 +2397,6 @@
       <c r="E103" t="n">
         <v>50.96897994933628</v>
       </c>
-      <c r="F103" t="n">
-        <v>0.0271266900588855</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.1194341803328033</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3654,18 +2416,6 @@
       <c r="E104" t="n">
         <v>47.6116679642697</v>
       </c>
-      <c r="F104" t="n">
-        <v>0.0139659672073655</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.0652719093117759</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3685,18 +2435,6 @@
       <c r="E105" t="n">
         <v>45.92095927076309</v>
       </c>
-      <c r="F105" t="n">
-        <v>0.0200536582826096</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0.0911307652829625</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3708,7 +2446,7 @@
         <v>20.67920270616881</v>
       </c>
       <c r="C106" t="n">
-        <v>42.87563511798295</v>
+        <v>43.86936815506643</v>
       </c>
       <c r="D106" t="n">
         <v>20.6859947332305</v>
@@ -3716,18 +2454,6 @@
       <c r="E106" t="n">
         <v>43.86936815506643</v>
       </c>
-      <c r="F106" t="n">
-        <v>0.0067920270616887</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.99373303708348</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.0328447240360126</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2.317710360089074</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3747,18 +2473,6 @@
       <c r="E107" t="n">
         <v>47.59988490896359</v>
       </c>
-      <c r="F107" t="n">
-        <v>0.0103322075808911</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0.0491232783591527</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3778,18 +2492,6 @@
       <c r="E108" t="n">
         <v>53.41341133387192</v>
       </c>
-      <c r="F108" t="n">
-        <v>0.0035711982734092</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0.0175427482065164</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3809,18 +2511,6 @@
       <c r="E109" t="n">
         <v>49.33164125812747</v>
       </c>
-      <c r="F109" t="n">
-        <v>0.0063089020719004</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0.0305798829257584</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3840,18 +2530,6 @@
       <c r="E110" t="n">
         <v>47.23566733735523</v>
       </c>
-      <c r="F110" t="n">
-        <v>0.0130362969308706</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.0611928442180011</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3871,18 +2549,6 @@
       <c r="E111" t="n">
         <v>49.18161904310156</v>
       </c>
-      <c r="F111" t="n">
-        <v>-0.0064523556954618</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>-0.0333372990337686</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3902,18 +2568,6 @@
       <c r="E112" t="n">
         <v>45.02995381659272</v>
       </c>
-      <c r="F112" t="n">
-        <v>0.0071788438785205</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.0346504678958913</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3933,18 +2587,6 @@
       <c r="E113" t="n">
         <v>47.46145644224983</v>
       </c>
-      <c r="F113" t="n">
-        <v>0.0043167512538211</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.021127740272546</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3964,18 +2606,6 @@
       <c r="E114" t="n">
         <v>48.16316493637957</v>
       </c>
-      <c r="F114" t="n">
-        <v>-0.0029745182872673</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>-0.0150971248054315</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3995,18 +2625,6 @@
       <c r="E115" t="n">
         <v>47.70404095660235</v>
       </c>
-      <c r="F115" t="n">
-        <v>-0.0103872824325108</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>-0.0547815703807612</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4026,18 +2644,6 @@
       <c r="E116" t="n">
         <v>49.37386130016081</v>
       </c>
-      <c r="F116" t="n">
-        <v>-0.0011892804018813</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>-0.0059819732270242</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4057,18 +2663,6 @@
       <c r="E117" t="n">
         <v>48.40156769438522</v>
       </c>
-      <c r="F117" t="n">
-        <v>-0.0068084284384504</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>-0.0352418502702708</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4088,18 +2682,6 @@
       <c r="E118" t="n">
         <v>48.97302347017871</v>
       </c>
-      <c r="F118" t="n">
-        <v>-0.0028581252362691</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>-0.0144978089494915</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4119,18 +2701,6 @@
       <c r="E119" t="n">
         <v>46.18782941825955</v>
       </c>
-      <c r="F119" t="n">
-        <v>-0.0056944860921568</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>-0.0293068682284419</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4150,18 +2720,6 @@
       <c r="E120" t="n">
         <v>49.29255576264361</v>
       </c>
-      <c r="F120" t="n">
-        <v>0.0040300450578669</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.0197522137326586</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4181,18 +2739,6 @@
       <c r="E121" t="n">
         <v>50.69133596164291</v>
       </c>
-      <c r="F121" t="n">
-        <v>-0.0101658922678247</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>-0.0535514528409568</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4212,18 +2758,6 @@
       <c r="E122" t="n">
         <v>45.43392171269903</v>
       </c>
-      <c r="F122" t="n">
-        <v>-0.0169346233298242</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>-0.0925058776151599</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4243,18 +2777,6 @@
       <c r="E123" t="n">
         <v>45.54384274345862</v>
       </c>
-      <c r="F123" t="n">
-        <v>-0.009765422469687399</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>-0.0513335829714315</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4274,18 +2796,6 @@
       <c r="E124" t="n">
         <v>49.94010132617773</v>
       </c>
-      <c r="F124" t="n">
-        <v>-0.0106998191873515</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>-0.0565230267684805</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4305,18 +2815,6 @@
       <c r="E125" t="n">
         <v>46.83945686216884</v>
       </c>
-      <c r="F125" t="n">
-        <v>-0.0039129505536799</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" t="n">
-        <v>-0.0199551707505861</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4336,18 +2834,6 @@
       <c r="E126" t="n">
         <v>49.98773926603601</v>
       </c>
-      <c r="F126" t="n">
-        <v>-0.008735798240454701</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>-0.0456739847817277</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4367,18 +2853,6 @@
       <c r="E127" t="n">
         <v>46.25733962863663</v>
       </c>
-      <c r="F127" t="n">
-        <v>-0.0132034938208391</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>-0.07068383713866359</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4398,18 +2872,6 @@
       <c r="E128" t="n">
         <v>50.01920072531965</v>
       </c>
-      <c r="F128" t="n">
-        <v>-0.0065430752951201</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0</v>
-      </c>
-      <c r="H128" t="n">
-        <v>-0.0338218717427747</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4429,18 +2891,6 @@
       <c r="E129" t="n">
         <v>47.34318225633268</v>
       </c>
-      <c r="F129" t="n">
-        <v>-0.026155655493369</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>-0.1504544514669086</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4460,18 +2910,6 @@
       <c r="E130" t="n">
         <v>47.5721879723604</v>
       </c>
-      <c r="F130" t="n">
-        <v>-0.02332316814514</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0</v>
-      </c>
-      <c r="H130" t="n">
-        <v>-0.1320103371804852</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4491,18 +2929,6 @@
       <c r="E131" t="n">
         <v>50.16511838328154</v>
       </c>
-      <c r="F131" t="n">
-        <v>-0.0263030046932364</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0</v>
-      </c>
-      <c r="H131" t="n">
-        <v>-0.1514303954814152</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4522,18 +2948,6 @@
       <c r="E132" t="n">
         <v>46.29653689579761</v>
       </c>
-      <c r="F132" t="n">
-        <v>-0.0234782156720463</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0</v>
-      </c>
-      <c r="H132" t="n">
-        <v>-0.1330046360081364</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4553,18 +2967,6 @@
       <c r="E133" t="n">
         <v>45.12668137224141</v>
       </c>
-      <c r="F133" t="n">
-        <v>-0.0312785073319368</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>-0.185385435117463</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4584,18 +2986,6 @@
       <c r="E134" t="n">
         <v>46.10510328624707</v>
       </c>
-      <c r="F134" t="n">
-        <v>-0.018046503353009</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>-0.0991819541012796</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4615,18 +3005,6 @@
       <c r="E135" t="n">
         <v>47.90466790128627</v>
       </c>
-      <c r="F135" t="n">
-        <v>-0.0248568290689128</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>-0.1419229133329624</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4646,18 +3024,6 @@
       <c r="E136" t="n">
         <v>43.87071355794275</v>
       </c>
-      <c r="F136" t="n">
-        <v>-0.0343626768815745</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>-0.2074573304774202</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4677,18 +3043,6 @@
       <c r="E137" t="n">
         <v>48.28386736939357</v>
       </c>
-      <c r="F137" t="n">
-        <v>-0.0318981419339188</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>-0.1897548444787543</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4708,18 +3062,6 @@
       <c r="E138" t="n">
         <v>45.94253521545046</v>
       </c>
-      <c r="F138" t="n">
-        <v>-0.0232721237356372</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>-0.1316833780134665</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4739,18 +3081,6 @@
       <c r="E139" t="n">
         <v>49.33130766140886</v>
       </c>
-      <c r="F139" t="n">
-        <v>-0.0202323716544796</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>-0.1125473581683591</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4762,7 +3092,7 @@
         <v>18.72910443608054</v>
       </c>
       <c r="C140" t="n">
-        <v>42.26720971591406</v>
+        <v>43.86936815506643</v>
       </c>
       <c r="D140" t="n">
         <v>18.71639548044135</v>
@@ -4770,18 +3100,6 @@
       <c r="E140" t="n">
         <v>43.86936815506643</v>
       </c>
-      <c r="F140" t="n">
-        <v>-0.0127089556391943</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1.602158439152362</v>
-      </c>
-      <c r="H140" t="n">
-        <v>-0.06785671831009341</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3.790546974642454</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4801,18 +3119,6 @@
       <c r="E141" t="n">
         <v>45.50707907251344</v>
       </c>
-      <c r="F141" t="n">
-        <v>-0.0068295441385757</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>-0.0353550138302471</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4824,7 +3130,7 @@
         <v>17.51806159389566</v>
       </c>
       <c r="C142" t="n">
-        <v>43.73617327031002</v>
+        <v>43.86936815506643</v>
       </c>
       <c r="D142" t="n">
         <v>17.49324220983462</v>
@@ -4832,18 +3138,6 @@
       <c r="E142" t="n">
         <v>43.86936815506643</v>
       </c>
-      <c r="F142" t="n">
-        <v>-0.0248193840610433</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.1331948847564064</v>
-      </c>
-      <c r="H142" t="n">
-        <v>-0.1416788263245512</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.3045416980886729</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4863,18 +3157,6 @@
       <c r="E143" t="n">
         <v>45.48995211969309</v>
       </c>
-      <c r="F143" t="n">
-        <v>-0.0350933551649781</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>-0.2128074050629502</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4883,7 +3165,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>15.65105226343671</v>
+        <v>15.89547887818433</v>
       </c>
       <c r="C144" t="n">
         <v>47.67542828412078</v>
@@ -4894,18 +3176,6 @@
       <c r="E144" t="n">
         <v>47.67542828412078</v>
       </c>
-      <c r="F144" t="n">
-        <v>0.2033814035294625</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1.299474310775852</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4925,18 +3195,6 @@
       <c r="E145" t="n">
         <v>46.86369158465945</v>
       </c>
-      <c r="F145" t="n">
-        <v>-0.0270415697753136</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>-0.1563472201972726</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4956,18 +3214,6 @@
       <c r="E146" t="n">
         <v>46.76177751564123</v>
       </c>
-      <c r="F146" t="n">
-        <v>-0.0349080182910377</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H146" t="n">
-        <v>-0.2114458735650586</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4987,18 +3233,6 @@
       <c r="E147" t="n">
         <v>47.00086431212762</v>
       </c>
-      <c r="F147" t="n">
-        <v>-0.0323779966434152</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0</v>
-      </c>
-      <c r="H147" t="n">
-        <v>-0.1931607783886061</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5018,18 +3252,6 @@
       <c r="E148" t="n">
         <v>47.78099723324173</v>
       </c>
-      <c r="F148" t="n">
-        <v>-0.033959172201893</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0</v>
-      </c>
-      <c r="H148" t="n">
-        <v>-0.2045230239588135</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5049,18 +3271,6 @@
       <c r="E149" t="n">
         <v>45.41638998250871</v>
       </c>
-      <c r="F149" t="n">
-        <v>-0.0308147608552467</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0</v>
-      </c>
-      <c r="H149" t="n">
-        <v>-0.1821362254237921</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5080,18 +3290,6 @@
       <c r="E150" t="n">
         <v>48.91062422762062</v>
       </c>
-      <c r="F150" t="n">
-        <v>-0.0224726708660369</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0</v>
-      </c>
-      <c r="H150" t="n">
-        <v>-0.1265871061974857</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5111,18 +3309,6 @@
       <c r="E151" t="n">
         <v>48.88990592349204</v>
       </c>
-      <c r="F151" t="n">
-        <v>-0.0288909736823512</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>-0.168845409877547</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5142,18 +3328,6 @@
       <c r="E152" t="n">
         <v>48.40644730927492</v>
       </c>
-      <c r="F152" t="n">
-        <v>-0.0311069567028177</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0</v>
-      </c>
-      <c r="H152" t="n">
-        <v>-0.1841813972650277</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5173,18 +3347,6 @@
       <c r="E153" t="n">
         <v>48.82534412741564</v>
       </c>
-      <c r="F153" t="n">
-        <v>-0.0372027001700132</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" t="n">
-        <v>-0.2285216045282385</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5193,7 +3355,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>15.84170295280105</v>
+        <v>15.89547887818433</v>
       </c>
       <c r="C154" t="n">
         <v>48.38508505839797</v>
@@ -5204,18 +3366,6 @@
       <c r="E154" t="n">
         <v>48.38508505839797</v>
       </c>
-      <c r="F154" t="n">
-        <v>0.0127307141651229</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0.08036203054086399</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5235,18 +3385,6 @@
       <c r="E155" t="n">
         <v>51.94638886570658</v>
       </c>
-      <c r="F155" t="n">
-        <v>-0.03312195825848</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0</v>
-      </c>
-      <c r="H155" t="n">
-        <v>-0.1984800271672832</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5266,18 +3404,6 @@
       <c r="E156" t="n">
         <v>47.79002164824307</v>
       </c>
-      <c r="F156" t="n">
-        <v>-0.0299025820876011</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0</v>
-      </c>
-      <c r="H156" t="n">
-        <v>-0.1757968019420583</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5297,18 +3423,6 @@
       <c r="E157" t="n">
         <v>47.44193673097594</v>
       </c>
-      <c r="F157" t="n">
-        <v>-0.0169097746075621</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0</v>
-      </c>
-      <c r="H157" t="n">
-        <v>-0.0923576044068847</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5328,18 +3442,6 @@
       <c r="E158" t="n">
         <v>46.64481536186684</v>
       </c>
-      <c r="F158" t="n">
-        <v>-0.0280836594100577</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0</v>
-      </c>
-      <c r="H158" t="n">
-        <v>-0.1633565448967051</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5359,18 +3461,6 @@
       <c r="E159" t="n">
         <v>46.18693328294526</v>
       </c>
-      <c r="F159" t="n">
-        <v>-0.0217781061645574</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0</v>
-      </c>
-      <c r="H159" t="n">
-        <v>-0.1221965814405827</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5378,7 +3468,9 @@
           <t>2024-05-02 02:20:00</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr"/>
+      <c r="B160" t="n">
+        <v>17.10454987447537</v>
+      </c>
       <c r="C160" t="n">
         <v>45.86586833425206</v>
       </c>
@@ -5388,14 +3480,6 @@
       <c r="E160" t="n">
         <v>45.86586833425206</v>
       </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="n">
-        <v>0</v>
-      </c>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5415,18 +3499,6 @@
       <c r="E161" t="n">
         <v>46.68427808873834</v>
       </c>
-      <c r="F161" t="n">
-        <v>-0.0361308963459343</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0</v>
-      </c>
-      <c r="H161" t="n">
-        <v>-0.22048632439101</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5446,18 +3518,6 @@
       <c r="E162" t="n">
         <v>48.43122054607297</v>
       </c>
-      <c r="F162" t="n">
-        <v>-0.0341102271613316</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0</v>
-      </c>
-      <c r="H162" t="n">
-        <v>-0.2056198316366669</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5477,18 +3537,6 @@
       <c r="E163" t="n">
         <v>49.35546618182428</v>
       </c>
-      <c r="F163" t="n">
-        <v>-0.0319021445116014</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0</v>
-      </c>
-      <c r="H163" t="n">
-        <v>-0.1897831737288492</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5508,18 +3556,6 @@
       <c r="E164" t="n">
         <v>48.90697691077057</v>
       </c>
-      <c r="F164" t="n">
-        <v>-0.0113509830844513</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0</v>
-      </c>
-      <c r="H164" t="n">
-        <v>-0.0601698501802039</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5539,18 +3575,6 @@
       <c r="E165" t="n">
         <v>47.39489562798546</v>
       </c>
-      <c r="F165" t="n">
-        <v>-0.0313788146269793</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0</v>
-      </c>
-      <c r="H165" t="n">
-        <v>-0.1860905826131136</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5570,18 +3594,6 @@
       <c r="E166" t="n">
         <v>50.85099755887921</v>
       </c>
-      <c r="F166" t="n">
-        <v>-0.0190932637059972</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H166" t="n">
-        <v>-0.1055420273293074</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5601,18 +3613,6 @@
       <c r="E167" t="n">
         <v>50.6574353299948</v>
       </c>
-      <c r="F167" t="n">
-        <v>-0.0305721632136446</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0</v>
-      </c>
-      <c r="H167" t="n">
-        <v>-0.1804435669694327</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5632,18 +3632,6 @@
       <c r="E168" t="n">
         <v>48.9905428274792</v>
       </c>
-      <c r="F168" t="n">
-        <v>-0.0169757564944035</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0</v>
-      </c>
-      <c r="H168" t="n">
-        <v>-0.0927514091535341</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5663,18 +3651,6 @@
       <c r="E169" t="n">
         <v>48.1384112960305</v>
       </c>
-      <c r="F169" t="n">
-        <v>-0.020004063961057</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H169" t="n">
-        <v>-0.1111361978568725</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5694,18 +3670,6 @@
       <c r="E170" t="n">
         <v>50.67860326865367</v>
       </c>
-      <c r="F170" t="n">
-        <v>-0.0229547891967314</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0</v>
-      </c>
-      <c r="H170" t="n">
-        <v>-0.1296549570168201</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5725,18 +3689,6 @@
       <c r="E171" t="n">
         <v>50.09822142528783</v>
       </c>
-      <c r="F171" t="n">
-        <v>-0.0212617483677597</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0</v>
-      </c>
-      <c r="H171" t="n">
-        <v>-0.1189546623265982</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5756,18 +3708,6 @@
       <c r="E172" t="n">
         <v>46.96949113298565</v>
       </c>
-      <c r="F172" t="n">
-        <v>-0.0246373696164603</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0</v>
-      </c>
-      <c r="H172" t="n">
-        <v>-0.1404938416045396</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5787,18 +3727,6 @@
       <c r="E173" t="n">
         <v>49.87612107316132</v>
       </c>
-      <c r="F173" t="n">
-        <v>-0.0159690687130265</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0</v>
-      </c>
-      <c r="H173" t="n">
-        <v>-0.0867738298195358</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5818,18 +3746,6 @@
       <c r="E174" t="n">
         <v>50.68527202984766</v>
       </c>
-      <c r="F174" t="n">
-        <v>-0.0212754045935703</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0</v>
-      </c>
-      <c r="H174" t="n">
-        <v>-0.1190401608977717</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5849,18 +3765,6 @@
       <c r="E175" t="n">
         <v>48.51362934334269</v>
       </c>
-      <c r="F175" t="n">
-        <v>-0.0256309272952854</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0</v>
-      </c>
-      <c r="H175" t="n">
-        <v>-0.1469923931905646</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5880,18 +3784,6 @@
       <c r="E176" t="n">
         <v>50.84713919923295</v>
       </c>
-      <c r="F176" t="n">
-        <v>-0.0249216676447296</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0</v>
-      </c>
-      <c r="H176" t="n">
-        <v>-0.1423458134965482</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5911,18 +3803,6 @@
       <c r="E177" t="n">
         <v>47.71476976450501</v>
       </c>
-      <c r="F177" t="n">
-        <v>-0.0136567246306427</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0</v>
-      </c>
-      <c r="H177" t="n">
-        <v>-0.0732879928378065</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5942,18 +3822,6 @@
       <c r="E178" t="n">
         <v>53.45619050743651</v>
       </c>
-      <c r="F178" t="n">
-        <v>-0.002665356632221</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0</v>
-      </c>
-      <c r="H178" t="n">
-        <v>-0.0135067851581107</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5973,18 +3841,6 @@
       <c r="E179" t="n">
         <v>53.44147416552174</v>
       </c>
-      <c r="F179" t="n">
-        <v>-0.0114197659318264</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0</v>
-      </c>
-      <c r="H179" t="n">
-        <v>-0.0605565370530724</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6004,18 +3860,6 @@
       <c r="E180" t="n">
         <v>50.60455748263982</v>
       </c>
-      <c r="F180" t="n">
-        <v>-0.0121586133922697</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>-0.0647280858166826</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6035,18 +3879,6 @@
       <c r="E181" t="n">
         <v>52.00268934080644</v>
       </c>
-      <c r="F181" t="n">
-        <v>-0.008084727763723199</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0</v>
-      </c>
-      <c r="H181" t="n">
-        <v>-0.0421265471450846</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6066,18 +3898,6 @@
       <c r="E182" t="n">
         <v>46.62420308462845</v>
       </c>
-      <c r="F182" t="n">
-        <v>0.0003289755864805</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0.0016421767521023</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6097,18 +3917,6 @@
       <c r="E183" t="n">
         <v>49.30160200391393</v>
       </c>
-      <c r="F183" t="n">
-        <v>-0.0059763072738689</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>-0.0308019458340315</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6128,18 +3936,6 @@
       <c r="E184" t="n">
         <v>51.19887876247199</v>
       </c>
-      <c r="F184" t="n">
-        <v>-0.0090601363152309</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0</v>
-      </c>
-      <c r="H184" t="n">
-        <v>-0.0474502083555934</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6159,18 +3955,6 @@
       <c r="E185" t="n">
         <v>49.81610276746341</v>
       </c>
-      <c r="F185" t="n">
-        <v>0.0029146841280542</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0.0143640867617788</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6190,18 +3974,6 @@
       <c r="E186" t="n">
         <v>53.56478987110148</v>
       </c>
-      <c r="F186" t="n">
-        <v>-0.0004491063897233</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H186" t="n">
-        <v>-0.0022505857107335</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6221,18 +3993,6 @@
       <c r="E187" t="n">
         <v>56.30781596343501</v>
       </c>
-      <c r="F187" t="n">
-        <v>0.008702084722816699</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0.041696204110152</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6252,18 +4012,6 @@
       <c r="E188" t="n">
         <v>50.13871848083915</v>
       </c>
-      <c r="F188" t="n">
-        <v>0.0006584961907236</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0.0032816760975711</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6283,18 +4031,6 @@
       <c r="E189" t="n">
         <v>50.9971454356875</v>
       </c>
-      <c r="F189" t="n">
-        <v>-0.0077509100573784</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H189" t="n">
-        <v>-0.0403170181959869</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6314,18 +4050,6 @@
       <c r="E190" t="n">
         <v>53.32439211507199</v>
       </c>
-      <c r="F190" t="n">
-        <v>-0.007293200231345</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0</v>
-      </c>
-      <c r="H190" t="n">
-        <v>-0.0378460969727099</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6345,18 +4069,6 @@
       <c r="E191" t="n">
         <v>56.25834839987285</v>
       </c>
-      <c r="F191" t="n">
-        <v>0.0153215220653848</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0.07115648226159341</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6376,18 +4088,6 @@
       <c r="E192" t="n">
         <v>50.77508390326968</v>
       </c>
-      <c r="F192" t="n">
-        <v>0.0173279013249398</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0.0797316001272753</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6407,18 +4107,6 @@
       <c r="E193" t="n">
         <v>53.90261439940114</v>
       </c>
-      <c r="F193" t="n">
-        <v>0.005517438904242</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0.0268465728925947</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6438,18 +4126,6 @@
       <c r="E194" t="n">
         <v>57.23273962958844</v>
       </c>
-      <c r="F194" t="n">
-        <v>0.005616712161899</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0.0273164185091946</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6469,18 +4145,6 @@
       <c r="E195" t="n">
         <v>50.4730100006555</v>
       </c>
-      <c r="F195" t="n">
-        <v>0.0200656888691064</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0.0911804514925612</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6500,18 +4164,6 @@
       <c r="E196" t="n">
         <v>51.40145885852872</v>
       </c>
-      <c r="F196" t="n">
-        <v>0.003632895859031</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0.0178404174026283</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6531,18 +4183,6 @@
       <c r="E197" t="n">
         <v>53.30403127009386</v>
       </c>
-      <c r="F197" t="n">
-        <v>0.0066743107033317</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0.0322938573285595</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6562,18 +4202,6 @@
       <c r="E198" t="n">
         <v>53.29818841051052</v>
       </c>
-      <c r="F198" t="n">
-        <v>0.0190028765131202</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0.0867699859274766</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6593,18 +4221,6 @@
       <c r="E199" t="n">
         <v>56.15305714996551</v>
       </c>
-      <c r="F199" t="n">
-        <v>0.0133049976872641</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0.0623754615762511</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6624,18 +4240,6 @@
       <c r="E200" t="n">
         <v>55.19992677434524</v>
       </c>
-      <c r="F200" t="n">
-        <v>0.0176029257201335</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0.0808947106840521</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6655,18 +4259,6 @@
       <c r="E201" t="n">
         <v>51.35559408768066</v>
       </c>
-      <c r="F201" t="n">
-        <v>0.0180685656717365</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0.0828572683828976</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6686,18 +4278,6 @@
       <c r="E202" t="n">
         <v>56.1253025988367</v>
       </c>
-      <c r="F202" t="n">
-        <v>0.0231503558801868</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0.1037433070132177</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6717,18 +4297,6 @@
       <c r="E203" t="n">
         <v>54.12831489058512</v>
       </c>
-      <c r="F203" t="n">
-        <v>0.0322135942420231</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0.1387239810277819</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6748,18 +4316,6 @@
       <c r="E204" t="n">
         <v>58.02103985942426</v>
       </c>
-      <c r="F204" t="n">
-        <v>0.024566860801034</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0.1093966434468723</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6779,18 +4335,6 @@
       <c r="E205" t="n">
         <v>54.40545969090482</v>
       </c>
-      <c r="F205" t="n">
-        <v>0.030007982602644</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0.130464961533467</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6810,18 +4354,6 @@
       <c r="E206" t="n">
         <v>54.57552495077999</v>
       </c>
-      <c r="F206" t="n">
-        <v>0.0127113954567619</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0.0597588832956807</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6841,18 +4373,6 @@
       <c r="E207" t="n">
         <v>57.11866594938868</v>
       </c>
-      <c r="F207" t="n">
-        <v>0.0282767555531577</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0.1238704987051272</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6872,18 +4392,6 @@
       <c r="E208" t="n">
         <v>57.74932466765984</v>
       </c>
-      <c r="F208" t="n">
-        <v>0.0242618092845425</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0.1081852026519567</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6903,18 +4411,6 @@
       <c r="E209" t="n">
         <v>57.30605679991019</v>
       </c>
-      <c r="F209" t="n">
-        <v>0.0231692851671851</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0.1038193277799335</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6934,18 +4430,6 @@
       <c r="E210" t="n">
         <v>53.22426321044312</v>
       </c>
-      <c r="F210" t="n">
-        <v>0.0270788600342832</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0.1192487051863626</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6965,18 +4449,6 @@
       <c r="E211" t="n">
         <v>57.85623635150701</v>
       </c>
-      <c r="F211" t="n">
-        <v>0.0323988946356408</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0.139410708843674</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6984,7 +4456,9 @@
           <t>2024-05-02 11:00:00</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr"/>
+      <c r="B212" t="n">
+        <v>23.04151157240448</v>
+      </c>
       <c r="C212" t="n">
         <v>54.8952677937776</v>
       </c>
@@ -6994,14 +4468,6 @@
       <c r="E212" t="n">
         <v>54.8952677937776</v>
       </c>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="n">
-        <v>0</v>
-      </c>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7021,18 +4487,6 @@
       <c r="E213" t="n">
         <v>57.6170568447244</v>
       </c>
-      <c r="F213" t="n">
-        <v>0.0284313368124493</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0.1244633823414187</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7052,18 +4506,6 @@
       <c r="E214" t="n">
         <v>54.480458885344</v>
       </c>
-      <c r="F214" t="n">
-        <v>0.0393940472834977</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0.1645573385408616</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7083,18 +4525,6 @@
       <c r="E215" t="n">
         <v>58.40069637538838</v>
       </c>
-      <c r="F215" t="n">
-        <v>0.0372349588364961</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0.1569539287932629</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7114,18 +4544,6 @@
       <c r="E216" t="n">
         <v>56.07357928944624</v>
       </c>
-      <c r="F216" t="n">
-        <v>0.0397544955606257</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0.1658133478067509</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7145,18 +4563,6 @@
       <c r="E217" t="n">
         <v>55.29873379363879</v>
       </c>
-      <c r="F217" t="n">
-        <v>0.0504697062360897</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0.2015002412647769</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7176,18 +4582,6 @@
       <c r="E218" t="n">
         <v>59.46727146264768</v>
       </c>
-      <c r="F218" t="n">
-        <v>0.0485961449013956</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0.1954822948709496</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7207,18 +4601,6 @@
       <c r="E219" t="n">
         <v>58.69685244057726</v>
       </c>
-      <c r="F219" t="n">
-        <v>0.0555454324514954</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0.2173603023096057</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7238,18 +4620,6 @@
       <c r="E220" t="n">
         <v>57.1577490727696</v>
       </c>
-      <c r="F220" t="n">
-        <v>0.046430445028669</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0.1884119676173429</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7269,18 +4639,6 @@
       <c r="E221" t="n">
         <v>61.45831068181393</v>
       </c>
-      <c r="F221" t="n">
-        <v>0.0439414383237739</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0.1801310946828663</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7300,18 +4658,6 @@
       <c r="E222" t="n">
         <v>57.84291449173222</v>
       </c>
-      <c r="F222" t="n">
-        <v>0.04851849902278</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0.1952309353773023</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7319,7 +4665,9 @@
           <t>2024-05-02 12:50:00</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr"/>
+      <c r="B223" t="n">
+        <v>25.11471098793966</v>
+      </c>
       <c r="C223" t="n">
         <v>58.95462319669612</v>
       </c>
@@ -7329,14 +4677,6 @@
       <c r="E223" t="n">
         <v>58.95462319669612</v>
       </c>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="n">
-        <v>0</v>
-      </c>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7356,18 +4696,6 @@
       <c r="E224" t="n">
         <v>59.59225269995432</v>
       </c>
-      <c r="F224" t="n">
-        <v>0.0537757207360165</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0.2119025436320423</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7387,18 +4715,6 @@
       <c r="E225" t="n">
         <v>57.97684982433061</v>
       </c>
-      <c r="F225" t="n">
-        <v>0.0461282789214614</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0.1874155993923033</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7418,18 +4734,6 @@
       <c r="E226" t="n">
         <v>60.31785785177927</v>
       </c>
-      <c r="F226" t="n">
-        <v>0.0554982685260974</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0.2172158302529912</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7449,18 +4753,6 @@
       <c r="E227" t="n">
         <v>58.46564289211248</v>
       </c>
-      <c r="F227" t="n">
-        <v>0.0575737029354677</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0.2235232179346056</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7480,18 +4772,6 @@
       <c r="E228" t="n">
         <v>58.86370443924938</v>
       </c>
-      <c r="F228" t="n">
-        <v>0.074674005211655</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0.2718641145313851</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7511,18 +4791,6 @@
       <c r="E229" t="n">
         <v>62.56408487390778</v>
       </c>
-      <c r="F229" t="n">
-        <v>0.0712284325101606</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0.2626141804196468</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7542,18 +4810,6 @@
       <c r="E230" t="n">
         <v>57.906746309845</v>
       </c>
-      <c r="F230" t="n">
-        <v>0.0531188706694898</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0.2098574101922644</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7573,18 +4829,6 @@
       <c r="E231" t="n">
         <v>55.30869368632527</v>
       </c>
-      <c r="F231" t="n">
-        <v>0.0580421722176112</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0.2249328926306793</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7604,18 +4848,6 @@
       <c r="E232" t="n">
         <v>63.49959973970817</v>
       </c>
-      <c r="F232" t="n">
-        <v>0.0507323166719544</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0.2023365689167642</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7635,18 +4867,6 @@
       <c r="E233" t="n">
         <v>65.51690847821993</v>
       </c>
-      <c r="F233" t="n">
-        <v>0.0577233748153815</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0.2239741539033129</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7666,18 +4886,6 @@
       <c r="E234" t="n">
         <v>59.74521788374141</v>
       </c>
-      <c r="F234" t="n">
-        <v>0.0649079557489322</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0.2450207868066058</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7697,18 +4905,6 @@
       <c r="E235" t="n">
         <v>56.81648447643639</v>
       </c>
-      <c r="F235" t="n">
-        <v>0.0719377429307428</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0.2645375450845901</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7728,18 +4924,6 @@
       <c r="E236" t="n">
         <v>60.2004220622152</v>
       </c>
-      <c r="F236" t="n">
-        <v>0.0591480861028337</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0.228240489799965</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7759,18 +4943,6 @@
       <c r="E237" t="n">
         <v>60.37692566947938</v>
       </c>
-      <c r="F237" t="n">
-        <v>0.0603836630516809</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0.2319026560421978</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7790,18 +4962,6 @@
       <c r="E238" t="n">
         <v>60.6941861351106</v>
       </c>
-      <c r="F238" t="n">
-        <v>0.0505980846642373</v>
-      </c>
-      <c r="G238" t="n">
-        <v>0</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0.2019093032256447</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7821,18 +4981,6 @@
       <c r="E239" t="n">
         <v>58.96853112249006</v>
       </c>
-      <c r="F239" t="n">
-        <v>0.06511160976768331</v>
-      </c>
-      <c r="G239" t="n">
-        <v>0</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0.2456007483970271</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7852,18 +5000,6 @@
       <c r="E240" t="n">
         <v>62.4722463601241</v>
       </c>
-      <c r="F240" t="n">
-        <v>0.0593886611768361</v>
-      </c>
-      <c r="G240" t="n">
-        <v>0</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0.2289562732133017</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7883,18 +5019,6 @@
       <c r="E241" t="n">
         <v>62.47643344119506</v>
       </c>
-      <c r="F241" t="n">
-        <v>0.06364833383414489</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0.2414137533453362</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7914,18 +5038,6 @@
       <c r="E242" t="n">
         <v>58.54931604516121</v>
       </c>
-      <c r="F242" t="n">
-        <v>0.0616982645338417</v>
-      </c>
-      <c r="G242" t="n">
-        <v>0</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0.2357610763821595</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7945,18 +5057,6 @@
       <c r="E243" t="n">
         <v>63.04358155393556</v>
       </c>
-      <c r="F243" t="n">
-        <v>0.0676108867019387</v>
-      </c>
-      <c r="G243" t="n">
-        <v>0</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0.2526462489444338</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7968,7 +5068,7 @@
         <v>25.63531840022233</v>
       </c>
       <c r="C244" t="n">
-        <v>65.85391133979084</v>
+        <v>65.52027850683564</v>
       </c>
       <c r="D244" t="n">
         <v>25.69167158422455</v>
@@ -7976,18 +5076,6 @@
       <c r="E244" t="n">
         <v>65.52027850683564</v>
       </c>
-      <c r="F244" t="n">
-        <v>0.0563531840022228</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-0.3336328329552032</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0.2198263470826801</v>
-      </c>
-      <c r="I244" t="n">
-        <v>-0.5066256903614054</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8007,18 +5095,6 @@
       <c r="E245" t="n">
         <v>62.19205014229252</v>
       </c>
-      <c r="F245" t="n">
-        <v>0.0587262643426349</v>
-      </c>
-      <c r="G245" t="n">
-        <v>0</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0.2269822296234418</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8026,7 +5102,9 @@
           <t>2024-05-02 16:40:00</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr"/>
+      <c r="B246" t="n">
+        <v>25.96202052527952</v>
+      </c>
       <c r="C246" t="n">
         <v>61.26924650821789</v>
       </c>
@@ -8036,14 +5114,6 @@
       <c r="E246" t="n">
         <v>61.26924650821789</v>
       </c>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="n">
-        <v>0</v>
-      </c>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8063,18 +5133,6 @@
       <c r="E247" t="n">
         <v>61.75178358083687</v>
       </c>
-      <c r="F247" t="n">
-        <v>0.0605141461629585</v>
-      </c>
-      <c r="G247" t="n">
-        <v>0</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0.2322873711629684</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8094,18 +5152,6 @@
       <c r="E248" t="n">
         <v>63.35427127369268</v>
       </c>
-      <c r="F248" t="n">
-        <v>0.0620403038457837</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0.2367586319175383</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8113,7 +5159,9 @@
           <t>2024-05-02 17:10:00</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr"/>
+      <c r="B249" t="n">
+        <v>27.57324716397884</v>
+      </c>
       <c r="C249" t="n">
         <v>58.74640773220492</v>
       </c>
@@ -8123,14 +5171,6 @@
       <c r="E249" t="n">
         <v>58.74640773220492</v>
       </c>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="n">
-        <v>0</v>
-      </c>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8139,7 +5179,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>29.02885940849156</v>
+        <v>27.57324716397884</v>
       </c>
       <c r="C250" t="n">
         <v>62.61650416404149</v>
@@ -8150,18 +5190,6 @@
       <c r="E250" t="n">
         <v>62.61650416404149</v>
       </c>
-      <c r="F250" t="n">
-        <v>-1.379879772872929</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0</v>
-      </c>
-      <c r="H250" t="n">
-        <v>-4.753475682442021</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8181,18 +5209,6 @@
       <c r="E251" t="n">
         <v>61.58270066711167</v>
       </c>
-      <c r="F251" t="n">
-        <v>0.0617955464417718</v>
-      </c>
-      <c r="G251" t="n">
-        <v>0</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0.2360450637211916</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8204,7 +5220,7 @@
         <v>26.74125709569531</v>
       </c>
       <c r="C252" t="n">
-        <v>66.13107604319102</v>
+        <v>65.52027850683564</v>
       </c>
       <c r="D252" t="n">
         <v>26.80866966665226</v>
@@ -8212,18 +5228,6 @@
       <c r="E252" t="n">
         <v>65.52027850683564</v>
       </c>
-      <c r="F252" t="n">
-        <v>0.0674125709569537</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-0.6107975363553777</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0.2520920041855681</v>
-      </c>
-      <c r="I252" t="n">
-        <v>-0.9236165096670412</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8243,18 +5247,6 @@
       <c r="E253" t="n">
         <v>62.15472958656757</v>
       </c>
-      <c r="F253" t="n">
-        <v>0.0723254213381352</v>
-      </c>
-      <c r="G253" t="n">
-        <v>0</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0.2655845384641196</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8263,10 +5255,10 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>28.19301081611727</v>
+        <v>27.57324716397884</v>
       </c>
       <c r="C254" t="n">
-        <v>65.90231315584411</v>
+        <v>65.52027850683564</v>
       </c>
       <c r="D254" t="n">
         <v>27.64897963561863</v>
@@ -8274,18 +5266,6 @@
       <c r="E254" t="n">
         <v>65.52027850683564</v>
       </c>
-      <c r="F254" t="n">
-        <v>-0.5440311804986315</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-0.3820346490084745</v>
-      </c>
-      <c r="H254" t="n">
-        <v>-1.929666838518794</v>
-      </c>
-      <c r="I254" t="n">
-        <v>-0.5796983910186106</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8305,18 +5285,6 @@
       <c r="E255" t="n">
         <v>60.41829785243414</v>
       </c>
-      <c r="F255" t="n">
-        <v>0.0627664950594812</v>
-      </c>
-      <c r="G255" t="n">
-        <v>0</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0.238867954018543</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8336,18 +5304,6 @@
       <c r="E256" t="n">
         <v>63.85528427871785</v>
       </c>
-      <c r="F256" t="n">
-        <v>0.0677535509005657</v>
-      </c>
-      <c r="G256" t="n">
-        <v>0</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0.2530444532768402</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8367,18 +5323,6 @@
       <c r="E257" t="n">
         <v>63.3702678740452</v>
       </c>
-      <c r="F257" t="n">
-        <v>0.074658793656301</v>
-      </c>
-      <c r="G257" t="n">
-        <v>0</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0.2718237878439343</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8398,18 +5342,6 @@
       <c r="E258" t="n">
         <v>61.03976066871148</v>
       </c>
-      <c r="F258" t="n">
-        <v>0.0719589125329882</v>
-      </c>
-      <c r="G258" t="n">
-        <v>0</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0.2645947943487977</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8429,18 +5361,6 @@
       <c r="E259" t="n">
         <v>63.17469574737099</v>
       </c>
-      <c r="F259" t="n">
-        <v>0.065932060901904</v>
-      </c>
-      <c r="G259" t="n">
-        <v>0</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0.2479282139893056</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8460,18 +5380,6 @@
       <c r="E260" t="n">
         <v>65.2826266212422</v>
       </c>
-      <c r="F260" t="n">
-        <v>0.06722982757314711</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0.251580552155037</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8491,18 +5399,6 @@
       <c r="E261" t="n">
         <v>62.24330701864857</v>
       </c>
-      <c r="F261" t="n">
-        <v>0.0580959794353859</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0.225094476723262</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8522,18 +5418,6 @@
       <c r="E262" t="n">
         <v>59.5358640789387</v>
       </c>
-      <c r="F262" t="n">
-        <v>0.0655593651928079</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0.2468727289855106</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8553,18 +5437,6 @@
       <c r="E263" t="n">
         <v>62.90914402133011</v>
       </c>
-      <c r="F263" t="n">
-        <v>0.0648213594509741</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0.2447739094209065</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8584,18 +5456,6 @@
       <c r="E264" t="n">
         <v>61.15947147047324</v>
       </c>
-      <c r="F264" t="n">
-        <v>0.0677244468571274</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0.2529632525238518</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8615,18 +5475,6 @@
       <c r="E265" t="n">
         <v>62.29524027198629</v>
       </c>
-      <c r="F265" t="n">
-        <v>0.0615794301360566</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0.2354138859620089</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8646,18 +5494,6 @@
       <c r="E266" t="n">
         <v>62.82789889653843</v>
       </c>
-      <c r="F266" t="n">
-        <v>0.0680898580232849</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0.2539814766785085</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8677,18 +5513,6 @@
       <c r="E267" t="n">
         <v>59.58646386566518</v>
       </c>
-      <c r="F267" t="n">
-        <v>0.0711560435447964</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0.2624173247794187</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -8708,18 +5532,6 @@
       <c r="E268" t="n">
         <v>59.76868332135864</v>
       </c>
-      <c r="F268" t="n">
-        <v>0.06438927548290251</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0.2435396646301062</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -8739,18 +5551,6 @@
       <c r="E269" t="n">
         <v>63.96190196874727</v>
       </c>
-      <c r="F269" t="n">
-        <v>0.064954854839506</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0.245154424057834</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -8770,18 +5570,6 @@
       <c r="E270" t="n">
         <v>61.94563704356931</v>
       </c>
-      <c r="F270" t="n">
-        <v>0.0620137917320882</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0.2366814026167682</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8801,18 +5589,6 @@
       <c r="E271" t="n">
         <v>57.85043346567291</v>
       </c>
-      <c r="F271" t="n">
-        <v>0.0607501378015946</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0.2329821886722048</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8832,18 +5608,6 @@
       <c r="E272" t="n">
         <v>64.53400573327454</v>
       </c>
-      <c r="F272" t="n">
-        <v>0.054766066868602</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0.2149660963163068</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8863,18 +5627,6 @@
       <c r="E273" t="n">
         <v>63.48900918483348</v>
       </c>
-      <c r="F273" t="n">
-        <v>0.0610603672476059</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0.233893669465702</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8894,18 +5646,6 @@
       <c r="E274" t="n">
         <v>61.49203972920526</v>
       </c>
-      <c r="F274" t="n">
-        <v>0.0571533079242172</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0.2222538313256318</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8925,18 +5665,6 @@
       <c r="E275" t="n">
         <v>60.25723000510529</v>
       </c>
-      <c r="F275" t="n">
-        <v>0.0714383736961714</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0.2631845038098209</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8956,18 +5684,6 @@
       <c r="E276" t="n">
         <v>64.52920474020767</v>
       </c>
-      <c r="F276" t="n">
-        <v>0.06671507555221361</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0.250136125279328</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8987,18 +5703,6 @@
       <c r="E277" t="n">
         <v>63.51860476321797</v>
       </c>
-      <c r="F277" t="n">
-        <v>0.0572825028297536</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0.2226443780658432</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9010,7 +5714,7 @@
         <v>24.80858631125013</v>
       </c>
       <c r="C278" t="n">
-        <v>67.54305972980919</v>
+        <v>65.52027850683564</v>
       </c>
       <c r="D278" t="n">
         <v>24.85667217436264</v>
@@ -9018,18 +5722,6 @@
       <c r="E278" t="n">
         <v>65.52027850683564</v>
       </c>
-      <c r="F278" t="n">
-        <v>0.0480858631125009</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-2.022781222973549</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0.1938275019350663</v>
-      </c>
-      <c r="I278" t="n">
-        <v>-2.994802472771044</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -9049,18 +5741,6 @@
       <c r="E279" t="n">
         <v>63.57184454391262</v>
       </c>
-      <c r="F279" t="n">
-        <v>0.0444529156712718</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0.181846534941928</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9080,18 +5760,6 @@
       <c r="E280" t="n">
         <v>63.45617222763629</v>
       </c>
-      <c r="F280" t="n">
-        <v>0.0593583525860061</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0.2288661691214383</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9111,18 +5779,6 @@
       <c r="E281" t="n">
         <v>62.29192338778103</v>
       </c>
-      <c r="F281" t="n">
-        <v>0.0516093854575032</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0.2051170919704025</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -9142,18 +5798,6 @@
       <c r="E282" t="n">
         <v>64.20008966800665</v>
       </c>
-      <c r="F282" t="n">
-        <v>0.0518514066992565</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0.2058809493217337</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9173,18 +5817,6 @@
       <c r="E283" t="n">
         <v>63.7532454566738</v>
       </c>
-      <c r="F283" t="n">
-        <v>0.0349703052725587</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0.1488286157350568</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9204,18 +5836,6 @@
       <c r="E284" t="n">
         <v>64.93887603440932</v>
       </c>
-      <c r="F284" t="n">
-        <v>0.0523395204817305</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0.2074170561226866</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -9235,18 +5855,6 @@
       <c r="E285" t="n">
         <v>61.32098272876271</v>
       </c>
-      <c r="F285" t="n">
-        <v>0.0476678010832536</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0.1924666867261856</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9266,18 +5874,6 @@
       <c r="E286" t="n">
         <v>61.41690781219896</v>
       </c>
-      <c r="F286" t="n">
-        <v>0.0353289646841048</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0.1501258662805453</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9297,18 +5893,6 @@
       <c r="E287" t="n">
         <v>61.24954460139539</v>
       </c>
-      <c r="F287" t="n">
-        <v>0.0383935133037276</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0.161050998291266</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9328,18 +5912,6 @@
       <c r="E288" t="n">
         <v>63.70536118211354</v>
       </c>
-      <c r="F288" t="n">
-        <v>0.0421108978822886</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0.1739322692643219</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9359,18 +5931,6 @@
       <c r="E289" t="n">
         <v>65.03253889024538</v>
       </c>
-      <c r="F289" t="n">
-        <v>0.0391827361858858</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0.1638192488751957</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -9390,18 +5950,6 @@
       <c r="E290" t="n">
         <v>61.0262158460563</v>
       </c>
-      <c r="F290" t="n">
-        <v>0.0353021996618814</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0.1500291952757318</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -9421,18 +5969,6 @@
       <c r="E291" t="n">
         <v>60.99858202183222</v>
       </c>
-      <c r="F291" t="n">
-        <v>0.0351377037498394</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0.1494345789275126</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -9452,18 +5988,6 @@
       <c r="E292" t="n">
         <v>62.37669582363866</v>
       </c>
-      <c r="F292" t="n">
-        <v>0.0325972710856667</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0.1401446841294238</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -9483,18 +6007,6 @@
       <c r="E293" t="n">
         <v>61.15366509051999</v>
       </c>
-      <c r="F293" t="n">
-        <v>0.0339137976160479</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0.1449841692182471</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -9514,18 +6026,6 @@
       <c r="E294" t="n">
         <v>63.4422345910796</v>
       </c>
-      <c r="F294" t="n">
-        <v>0.0416183102077489</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0.1722481635268654</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -9545,18 +6045,6 @@
       <c r="E295" t="n">
         <v>56.9238641093848</v>
       </c>
-      <c r="F295" t="n">
-        <v>0.011812038255698</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0.0557666049246863</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -9576,18 +6064,6 @@
       <c r="E296" t="n">
         <v>59.65971398133736</v>
       </c>
-      <c r="F296" t="n">
-        <v>0.0265717776624683</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0.1172775265154741</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -9607,18 +6083,6 @@
       <c r="E297" t="n">
         <v>59.63047453841087</v>
       </c>
-      <c r="F297" t="n">
-        <v>0.0279082361278497</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0.1224538287953492</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -9638,18 +6102,6 @@
       <c r="E298" t="n">
         <v>56.43332179238282</v>
       </c>
-      <c r="F298" t="n">
-        <v>0.0271809086244729</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0.1196443345043702</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -9669,18 +6121,6 @@
       <c r="E299" t="n">
         <v>59.02209468042311</v>
       </c>
-      <c r="F299" t="n">
-        <v>0.0209367829259576</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0.0947636814869995</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -9700,18 +6140,6 @@
       <c r="E300" t="n">
         <v>58.99107778291524</v>
       </c>
-      <c r="F300" t="n">
-        <v>0.009670855548268501</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0.0461239857250557</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -9731,18 +6159,6 @@
       <c r="E301" t="n">
         <v>60.2879512486391</v>
       </c>
-      <c r="F301" t="n">
-        <v>0.0226896476082281</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0.1018890992550558</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -9762,18 +6178,6 @@
       <c r="E302" t="n">
         <v>62.7816881979606</v>
       </c>
-      <c r="F302" t="n">
-        <v>0.0309105114544117</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0.1338635961599115</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -9793,18 +6197,6 @@
       <c r="E303" t="n">
         <v>59.92813127062453</v>
       </c>
-      <c r="F303" t="n">
-        <v>0.006508582147795</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0.0315172477584344</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -9824,18 +6216,6 @@
       <c r="E304" t="n">
         <v>58.21609830914207</v>
       </c>
-      <c r="F304" t="n">
-        <v>0.0217216919947276</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0.0979682763527007</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -9855,18 +6235,6 @@
       <c r="E305" t="n">
         <v>60.0203452657572</v>
       </c>
-      <c r="F305" t="n">
-        <v>0.0118087930294876</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0.055752137862585</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -9886,18 +6254,6 @@
       <c r="E306" t="n">
         <v>62.08626565775256</v>
       </c>
-      <c r="F306" t="n">
-        <v>0.0121186162703885</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0.0571313187096264</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -9917,18 +6273,6 @@
       <c r="E307" t="n">
         <v>57.88688196207129</v>
       </c>
-      <c r="F307" t="n">
-        <v>0.0036244054592238</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0.0177994649072142</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -9948,18 +6292,6 @@
       <c r="E308" t="n">
         <v>57.8658313158389</v>
       </c>
-      <c r="F308" t="n">
-        <v>0.0071092419186484</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0.0343260486726179</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -9979,18 +6311,6 @@
       <c r="E309" t="n">
         <v>60.64964550499038</v>
       </c>
-      <c r="F309" t="n">
-        <v>0.0170169507731614</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0.0784130028209114</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -10010,18 +6330,6 @@
       <c r="E310" t="n">
         <v>58.93251303351781</v>
       </c>
-      <c r="F310" t="n">
-        <v>0.010473413451649</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0.049761218198018</v>
-      </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -10041,18 +6349,6 @@
       <c r="E311" t="n">
         <v>60.51115107400678</v>
       </c>
-      <c r="F311" t="n">
-        <v>0.0170126901868243</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0.0783949094045067</v>
-      </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -10072,18 +6368,6 @@
       <c r="E312" t="n">
         <v>59.02713222100653</v>
       </c>
-      <c r="F312" t="n">
-        <v>0.011635064404377</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0.0549770163896169</v>
-      </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -10103,18 +6387,6 @@
       <c r="E313" t="n">
         <v>60.29373514493339</v>
       </c>
-      <c r="F313" t="n">
-        <v>0.0049899313379704</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0.0243423240614849</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -10134,18 +6406,6 @@
       <c r="E314" t="n">
         <v>56.65406310679042</v>
       </c>
-      <c r="F314" t="n">
-        <v>0.0126649456372938</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0.0595535178557084</v>
-      </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -10165,18 +6425,6 @@
       <c r="E315" t="n">
         <v>58.53178368219527</v>
       </c>
-      <c r="F315" t="n">
-        <v>0.0020908184025714</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0.0103459346599628</v>
-      </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -10196,18 +6444,6 @@
       <c r="E316" t="n">
         <v>57.96432264682909</v>
       </c>
-      <c r="F316" t="n">
-        <v>0.0033950566141598</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0.0166919327867455</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -10227,18 +6463,6 @@
       <c r="E317" t="n">
         <v>55.7817815490155</v>
       </c>
-      <c r="F317" t="n">
-        <v>-0.0058733663265968</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0</v>
-      </c>
-      <c r="H317" t="n">
-        <v>-0.0302553349607768</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -10258,18 +6482,6 @@
       <c r="E318" t="n">
         <v>54.91267529394551</v>
       </c>
-      <c r="F318" t="n">
-        <v>-0.0047044549807857</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0</v>
-      </c>
-      <c r="H318" t="n">
-        <v>-0.0240889006470831</v>
-      </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -10289,18 +6501,6 @@
       <c r="E319" t="n">
         <v>59.23550116470916</v>
       </c>
-      <c r="F319" t="n">
-        <v>-0.0114001838144695</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0</v>
-      </c>
-      <c r="H319" t="n">
-        <v>-0.0604464206012526</v>
-      </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -10320,18 +6520,6 @@
       <c r="E320" t="n">
         <v>56.98487233362502</v>
       </c>
-      <c r="F320" t="n">
-        <v>-0.0009127692572512</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0</v>
-      </c>
-      <c r="H320" t="n">
-        <v>-0.0045847704739572</v>
-      </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -10351,18 +6539,6 @@
       <c r="E321" t="n">
         <v>55.46349151700759</v>
       </c>
-      <c r="F321" t="n">
-        <v>-0.0173820094533958</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0</v>
-      </c>
-      <c r="H321" t="n">
-        <v>-0.09518234978584959</v>
-      </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -10382,18 +6558,6 @@
       <c r="E322" t="n">
         <v>57.13556988229545</v>
       </c>
-      <c r="F322" t="n">
-        <v>-0.0049225630735207</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0</v>
-      </c>
-      <c r="H322" t="n">
-        <v>-0.0252338925048314</v>
-      </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -10413,18 +6577,6 @@
       <c r="E323" t="n">
         <v>59.40254233624648</v>
       </c>
-      <c r="F323" t="n">
-        <v>-0.0129685535409542</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0</v>
-      </c>
-      <c r="H323" t="n">
-        <v>-0.06933889346674139</v>
-      </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -10444,18 +6596,6 @@
       <c r="E324" t="n">
         <v>52.40240820638255</v>
       </c>
-      <c r="F324" t="n">
-        <v>-0.0046388715481135</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0</v>
-      </c>
-      <c r="H324" t="n">
-        <v>-0.0237451103240126</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -10475,18 +6615,6 @@
       <c r="E325" t="n">
         <v>53.78689009184386</v>
       </c>
-      <c r="F325" t="n">
-        <v>-0.008752553967426</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0</v>
-      </c>
-      <c r="H325" t="n">
-        <v>-0.0457655992223567</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -10506,18 +6634,6 @@
       <c r="E326" t="n">
         <v>54.74968496142221</v>
       </c>
-      <c r="F326" t="n">
-        <v>-0.0024014186229095</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0</v>
-      </c>
-      <c r="H326" t="n">
-        <v>-0.0121530155033187</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -10537,18 +6653,6 @@
       <c r="E327" t="n">
         <v>59.33221580547843</v>
       </c>
-      <c r="F327" t="n">
-        <v>-0.0111329648629663</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0</v>
-      </c>
-      <c r="H327" t="n">
-        <v>-0.0589460455864561</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -10568,18 +6672,6 @@
       <c r="E328" t="n">
         <v>56.78864566882456</v>
       </c>
-      <c r="F328" t="n">
-        <v>-0.0283191631606136</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0</v>
-      </c>
-      <c r="H328" t="n">
-        <v>-0.164952383049645</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -10599,18 +6691,6 @@
       <c r="E329" t="n">
         <v>57.57103720870208</v>
       </c>
-      <c r="F329" t="n">
-        <v>-0.0188130371646835</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0</v>
-      </c>
-      <c r="H329" t="n">
-        <v>-0.1038321790391891</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -10630,18 +6710,6 @@
       <c r="E330" t="n">
         <v>53.56843367873201</v>
       </c>
-      <c r="F330" t="n">
-        <v>-0.027539867724581</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0</v>
-      </c>
-      <c r="H330" t="n">
-        <v>-0.1596883138220027</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -10661,18 +6729,6 @@
       <c r="E331" t="n">
         <v>53.42156301323761</v>
       </c>
-      <c r="F331" t="n">
-        <v>-0.0239162141796107</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0</v>
-      </c>
-      <c r="H331" t="n">
-        <v>-0.135822921276842</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -10692,18 +6748,6 @@
       <c r="E332" t="n">
         <v>56.3677728589872</v>
       </c>
-      <c r="F332" t="n">
-        <v>-0.0106221349831265</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0</v>
-      </c>
-      <c r="H332" t="n">
-        <v>-0.0560896331901312</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -10723,18 +6767,6 @@
       <c r="E333" t="n">
         <v>55.39994132716733</v>
       </c>
-      <c r="F333" t="n">
-        <v>-0.0176096118737376</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0</v>
-      </c>
-      <c r="H333" t="n">
-        <v>-0.0965490125584198</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -10754,18 +6786,6 @@
       <c r="E334" t="n">
         <v>56.19195943076333</v>
       </c>
-      <c r="F334" t="n">
-        <v>-0.0277947473899367</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0</v>
-      </c>
-      <c r="H334" t="n">
-        <v>-0.1614047595451378</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -10785,18 +6805,6 @@
       <c r="E335" t="n">
         <v>54.53017622510802</v>
       </c>
-      <c r="F335" t="n">
-        <v>-0.0307855899935631</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0</v>
-      </c>
-      <c r="H335" t="n">
-        <v>-0.1819324370329457</v>
-      </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -10816,18 +6824,6 @@
       <c r="E336" t="n">
         <v>55.27289478761283</v>
       </c>
-      <c r="F336" t="n">
-        <v>-0.0242040951127116</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0</v>
-      </c>
-      <c r="H336" t="n">
-        <v>-0.1376829291230083</v>
-      </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -10847,18 +6843,6 @@
       <c r="E337" t="n">
         <v>54.84409274426844</v>
       </c>
-      <c r="F337" t="n">
-        <v>-0.033649421514454</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0</v>
-      </c>
-      <c r="H337" t="n">
-        <v>-0.2022801592924891</v>
-      </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -10878,18 +6862,6 @@
       <c r="E338" t="n">
         <v>55.89490001439119</v>
       </c>
-      <c r="F338" t="n">
-        <v>-0.0304866482745289</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0</v>
-      </c>
-      <c r="H338" t="n">
-        <v>-0.1798480648527465</v>
-      </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -10909,18 +6881,6 @@
       <c r="E339" t="n">
         <v>55.76526104690448</v>
       </c>
-      <c r="F339" t="n">
-        <v>-0.0242143512395358</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0</v>
-      </c>
-      <c r="H339" t="n">
-        <v>-0.1377493066713987</v>
-      </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -10940,18 +6900,6 @@
       <c r="E340" t="n">
         <v>50.72385328343685</v>
       </c>
-      <c r="F340" t="n">
-        <v>-0.0188749650683135</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0</v>
-      </c>
-      <c r="H340" t="n">
-        <v>-0.1042095869046079</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -10971,18 +6919,6 @@
       <c r="E341" t="n">
         <v>49.28199118633232</v>
       </c>
-      <c r="F341" t="n">
-        <v>-0.0232179722420617</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0</v>
-      </c>
-      <c r="H341" t="n">
-        <v>-0.1313367231755799</v>
-      </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -10991,7 +6927,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>15.60116091487271</v>
+        <v>15.89547887818433</v>
       </c>
       <c r="C342" t="n">
         <v>55.59363272326524</v>
@@ -11002,18 +6938,6 @@
       <c r="E342" t="n">
         <v>55.59363272326524</v>
       </c>
-      <c r="F342" t="n">
-        <v>0.2532727520934603</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0</v>
-      </c>
-      <c r="H342" t="n">
-        <v>1.623422471413736</v>
-      </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -11033,18 +6957,6 @@
       <c r="E343" t="n">
         <v>55.77999234131114</v>
       </c>
-      <c r="F343" t="n">
-        <v>-0.0262413012260083</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0</v>
-      </c>
-      <c r="H343" t="n">
-        <v>-0.1510215109295946</v>
-      </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -11064,18 +6976,6 @@
       <c r="E344" t="n">
         <v>51.17858648932281</v>
       </c>
-      <c r="F344" t="n">
-        <v>-0.0282421605964628</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0</v>
-      </c>
-      <c r="H344" t="n">
-        <v>-0.1644301109896316</v>
-      </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -11095,18 +6995,6 @@
       <c r="E345" t="n">
         <v>49.31644528978236</v>
       </c>
-      <c r="F345" t="n">
-        <v>-0.0261753426650095</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0</v>
-      </c>
-      <c r="H345" t="n">
-        <v>-0.1505847505544938</v>
-      </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -11126,18 +7014,6 @@
       <c r="E346" t="n">
         <v>53.05156502046653</v>
       </c>
-      <c r="F346" t="n">
-        <v>-0.0180366142034849</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0</v>
-      </c>
-      <c r="H346" t="n">
-        <v>-0.0991222169478371</v>
-      </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -11146,7 +7022,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>15.59786897565835</v>
+        <v>15.89547887818433</v>
       </c>
       <c r="C347" t="n">
         <v>54.53374869655895</v>
@@ -11157,18 +7033,6 @@
       <c r="E347" t="n">
         <v>54.53374869655895</v>
       </c>
-      <c r="F347" t="n">
-        <v>0.2565646913078225</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0</v>
-      </c>
-      <c r="H347" t="n">
-        <v>1.644870153148556</v>
-      </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -11188,18 +7052,6 @@
       <c r="E348" t="n">
         <v>56.08713696456638</v>
       </c>
-      <c r="F348" t="n">
-        <v>-0.0338957529377594</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0</v>
-      </c>
-      <c r="H348" t="n">
-        <v>-0.2040631322633123</v>
-      </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -11219,18 +7071,6 @@
       <c r="E349" t="n">
         <v>53.34581804614192</v>
       </c>
-      <c r="F349" t="n">
-        <v>-0.0257517197610184</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0</v>
-      </c>
-      <c r="H349" t="n">
-        <v>-0.1477875117372764</v>
-      </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -11250,18 +7090,6 @@
       <c r="E350" t="n">
         <v>51.39256351266877</v>
       </c>
-      <c r="F350" t="n">
-        <v>-0.0410397793064998</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0</v>
-      </c>
-      <c r="H350" t="n">
-        <v>-0.2581764112270036</v>
-      </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -11281,18 +7109,6 @@
       <c r="E351" t="n">
         <v>50.1741075671474</v>
       </c>
-      <c r="F351" t="n">
-        <v>-0.0196679691977941</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0</v>
-      </c>
-      <c r="H351" t="n">
-        <v>-0.1090653119709309</v>
-      </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -11312,18 +7128,6 @@
       <c r="E352" t="n">
         <v>51.80933918611755</v>
       </c>
-      <c r="F352" t="n">
-        <v>-0.0274025190623419</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0</v>
-      </c>
-      <c r="H352" t="n">
-        <v>-0.1587654635135714</v>
-      </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -11343,18 +7147,6 @@
       <c r="E353" t="n">
         <v>51.01576791667409</v>
       </c>
-      <c r="F353" t="n">
-        <v>-0.0239867575059342</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0</v>
-      </c>
-      <c r="H353" t="n">
-        <v>-0.1362781411560162</v>
-      </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -11374,18 +7166,6 @@
       <c r="E354" t="n">
         <v>49.41391120477056</v>
       </c>
-      <c r="F354" t="n">
-        <v>-0.0337917759447137</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0</v>
-      </c>
-      <c r="H354" t="n">
-        <v>-0.2033098911728577</v>
-      </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -11405,18 +7185,6 @@
       <c r="E355" t="n">
         <v>55.37329196685488</v>
       </c>
-      <c r="F355" t="n">
-        <v>-0.0239317609570584</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0</v>
-      </c>
-      <c r="H355" t="n">
-        <v>-0.1359232141307535</v>
-      </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -11436,18 +7204,6 @@
       <c r="E356" t="n">
         <v>54.67992895539002</v>
       </c>
-      <c r="F356" t="n">
-        <v>-0.0219325196321129</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0</v>
-      </c>
-      <c r="H356" t="n">
-        <v>-0.1231697083981903</v>
-      </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -11467,18 +7223,6 @@
       <c r="E357" t="n">
         <v>53.21767156251374</v>
       </c>
-      <c r="F357" t="n">
-        <v>-0.0275163799043482</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0</v>
-      </c>
-      <c r="H357" t="n">
-        <v>-0.1595303941851919</v>
-      </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -11498,18 +7242,6 @@
       <c r="E358" t="n">
         <v>48.94211751179391</v>
       </c>
-      <c r="F358" t="n">
-        <v>-0.0271916802292473</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0</v>
-      </c>
-      <c r="H358" t="n">
-        <v>-0.1573516846024537</v>
-      </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -11529,18 +7261,6 @@
       <c r="E359" t="n">
         <v>52.33445338361513</v>
       </c>
-      <c r="F359" t="n">
-        <v>-0.0265776106219952</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0</v>
-      </c>
-      <c r="H359" t="n">
-        <v>-0.1532536295764242</v>
-      </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -11560,18 +7280,6 @@
       <c r="E360" t="n">
         <v>51.74670523255386</v>
       </c>
-      <c r="F360" t="n">
-        <v>-0.0341028828674012</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0</v>
-      </c>
-      <c r="H360" t="n">
-        <v>-0.2055664586392031</v>
-      </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -11591,18 +7299,6 @@
       <c r="E361" t="n">
         <v>51.19811016472631</v>
       </c>
-      <c r="F361" t="n">
-        <v>-0.0286339525854586</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0</v>
-      </c>
-      <c r="H361" t="n">
-        <v>-0.167092332568027</v>
-      </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -11622,18 +7318,6 @@
       <c r="E362" t="n">
         <v>52.66053093978645</v>
       </c>
-      <c r="F362" t="n">
-        <v>-0.0281634829241994</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0</v>
-      </c>
-      <c r="H362" t="n">
-        <v>-0.1638969609223182</v>
-      </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -11653,18 +7337,6 @@
       <c r="E363" t="n">
         <v>51.28282387085269</v>
       </c>
-      <c r="F363" t="n">
-        <v>-0.0238599303817359</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0</v>
-      </c>
-      <c r="H363" t="n">
-        <v>-0.1354599804203885</v>
-      </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -11684,18 +7356,6 @@
       <c r="E364" t="n">
         <v>51.34577412442442</v>
       </c>
-      <c r="F364" t="n">
-        <v>-0.0189466164287352</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0</v>
-      </c>
-      <c r="H364" t="n">
-        <v>-0.104646574700869</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -11715,18 +7375,6 @@
       <c r="E365" t="n">
         <v>50.99608681706005</v>
       </c>
-      <c r="F365" t="n">
-        <v>-0.0327112673598222</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0</v>
-      </c>
-      <c r="H365" t="n">
-        <v>-0.1955377797629749</v>
-      </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -11746,18 +7394,6 @@
       <c r="E366" t="n">
         <v>50.26333024299829</v>
       </c>
-      <c r="F366" t="n">
-        <v>-0.025487775143155</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0</v>
-      </c>
-      <c r="H366" t="n">
-        <v>-0.1460515168153021</v>
-      </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -11777,18 +7413,6 @@
       <c r="E367" t="n">
         <v>45.87702132593157</v>
       </c>
-      <c r="F367" t="n">
-        <v>-0.013509471934924</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0</v>
-      </c>
-      <c r="H367" t="n">
-        <v>-0.07244052593496809</v>
-      </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -11808,18 +7432,6 @@
       <c r="E368" t="n">
         <v>49.47708159714436</v>
       </c>
-      <c r="F368" t="n">
-        <v>-0.0283082059639809</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0</v>
-      </c>
-      <c r="H368" t="n">
-        <v>-0.164878036966884</v>
-      </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -11839,18 +7451,6 @@
       <c r="E369" t="n">
         <v>48.06622606769466</v>
       </c>
-      <c r="F369" t="n">
-        <v>-0.0280395150624492</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0</v>
-      </c>
-      <c r="H369" t="n">
-        <v>-0.1630578971246354</v>
-      </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -11870,18 +7470,6 @@
       <c r="E370" t="n">
         <v>46.49094651555925</v>
       </c>
-      <c r="F370" t="n">
-        <v>-0.0200063597941273</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0</v>
-      </c>
-      <c r="H370" t="n">
-        <v>-0.1111503704866725</v>
-      </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -11901,18 +7489,6 @@
       <c r="E371" t="n">
         <v>52.28959942144654</v>
       </c>
-      <c r="F371" t="n">
-        <v>-0.0146094608423474</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0</v>
-      </c>
-      <c r="H371" t="n">
-        <v>-0.0788037022208779</v>
-      </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -11932,18 +7508,6 @@
       <c r="E372" t="n">
         <v>52.26268347543765</v>
       </c>
-      <c r="F372" t="n">
-        <v>-0.019497639644328</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0</v>
-      </c>
-      <c r="H372" t="n">
-        <v>-0.1080187516989192</v>
-      </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -11963,18 +7527,6 @@
       <c r="E373" t="n">
         <v>51.40531712542008</v>
       </c>
-      <c r="F373" t="n">
-        <v>-0.0092931084127556</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0</v>
-      </c>
-      <c r="H373" t="n">
-        <v>-0.0487297985689433</v>
-      </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -11994,18 +7546,6 @@
       <c r="E374" t="n">
         <v>49.08300814308886</v>
       </c>
-      <c r="F374" t="n">
-        <v>-0.0115782046055237</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0</v>
-      </c>
-      <c r="H374" t="n">
-        <v>-0.0614483296971233</v>
-      </c>
-      <c r="I374" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -12025,18 +7565,6 @@
       <c r="E375" t="n">
         <v>51.16312295710549</v>
       </c>
-      <c r="F375" t="n">
-        <v>-0.0106256831159896</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0</v>
-      </c>
-      <c r="H375" t="n">
-        <v>-0.0561094201728409</v>
-      </c>
-      <c r="I375" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -12056,18 +7584,6 @@
       <c r="E376" t="n">
         <v>48.37891827065787</v>
       </c>
-      <c r="F376" t="n">
-        <v>-0.0115460490411045</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0</v>
-      </c>
-      <c r="H376" t="n">
-        <v>-0.0612672166455299</v>
-      </c>
-      <c r="I376" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -12087,18 +7603,6 @@
       <c r="E377" t="n">
         <v>48.65705317789649</v>
       </c>
-      <c r="F377" t="n">
-        <v>0.0019974016938206</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0.009888254388778101</v>
-      </c>
-      <c r="I377" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -12118,18 +7622,6 @@
       <c r="E378" t="n">
         <v>45.96492778165763</v>
       </c>
-      <c r="F378" t="n">
-        <v>-0.0145695912561301</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0</v>
-      </c>
-      <c r="H378" t="n">
-        <v>-0.0785717475080087</v>
-      </c>
-      <c r="I378" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -12149,18 +7641,6 @@
       <c r="E379" t="n">
         <v>48.85008577664277</v>
       </c>
-      <c r="F379" t="n">
-        <v>-0.0259625420845814</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0</v>
-      </c>
-      <c r="H379" t="n">
-        <v>-0.1491778976523505</v>
-      </c>
-      <c r="I379" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -12180,18 +7660,6 @@
       <c r="E380" t="n">
         <v>48.08498184719692</v>
       </c>
-      <c r="F380" t="n">
-        <v>0.0005191448961383</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0.0025890041392669</v>
-      </c>
-      <c r="I380" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -12211,18 +7679,6 @@
       <c r="E381" t="n">
         <v>45.27093802657552</v>
       </c>
-      <c r="F381" t="n">
-        <v>-0.0126568214598705</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0</v>
-      </c>
-      <c r="H381" t="n">
-        <v>-0.0675595533208037</v>
-      </c>
-      <c r="I381" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -12242,18 +7698,6 @@
       <c r="E382" t="n">
         <v>47.68985483314746</v>
       </c>
-      <c r="F382" t="n">
-        <v>-0.0074108397927794</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0</v>
-      </c>
-      <c r="H382" t="n">
-        <v>-0.0384800462539304</v>
-      </c>
-      <c r="I382" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -12273,18 +7717,6 @@
       <c r="E383" t="n">
         <v>47.5528181141995</v>
       </c>
-      <c r="F383" t="n">
-        <v>0.0023157103687978</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0.0114460234678592</v>
-      </c>
-      <c r="I383" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -12304,18 +7736,6 @@
       <c r="E384" t="n">
         <v>51.231493767252</v>
       </c>
-      <c r="F384" t="n">
-        <v>-0.0167254709152082</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0</v>
-      </c>
-      <c r="H384" t="n">
-        <v>-0.0912591127568535</v>
-      </c>
-      <c r="I384" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -12335,18 +7755,6 @@
       <c r="E385" t="n">
         <v>49.3530006397479</v>
       </c>
-      <c r="F385" t="n">
-        <v>-0.0129043930423904</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0</v>
-      </c>
-      <c r="H385" t="n">
-        <v>-0.06897218621126811</v>
-      </c>
-      <c r="I385" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -12366,18 +7774,6 @@
       <c r="E386" t="n">
         <v>47.51981582400546</v>
       </c>
-      <c r="F386" t="n">
-        <v>-0.0139610708600024</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0</v>
-      </c>
-      <c r="H386" t="n">
-        <v>-0.075043814348644</v>
-      </c>
-      <c r="I386" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -12397,18 +7793,6 @@
       <c r="E387" t="n">
         <v>47.93103668599709</v>
       </c>
-      <c r="F387" t="n">
-        <v>-0.0068977758049975</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0</v>
-      </c>
-      <c r="H387" t="n">
-        <v>-0.0357208511385755</v>
-      </c>
-      <c r="I387" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -12428,18 +7812,6 @@
       <c r="E388" t="n">
         <v>47.46264550821024</v>
       </c>
-      <c r="F388" t="n">
-        <v>0.0031731025151167</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0.0156177292950509</v>
-      </c>
-      <c r="I388" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -12459,18 +7831,6 @@
       <c r="E389" t="n">
         <v>46.91340608529664</v>
       </c>
-      <c r="F389" t="n">
-        <v>0.0052191709919142</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0.025432180466804</v>
-      </c>
-      <c r="I389" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -12490,18 +7850,6 @@
       <c r="E390" t="n">
         <v>45.10367825876068</v>
       </c>
-      <c r="F390" t="n">
-        <v>0.0049562846065889</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0.0241821548243934</v>
-      </c>
-      <c r="I390" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -12521,18 +7869,6 @@
       <c r="E391" t="n">
         <v>46.9200410803451</v>
       </c>
-      <c r="F391" t="n">
-        <v>-0.0053776476186016</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0</v>
-      </c>
-      <c r="H391" t="n">
-        <v>-0.0276311921667821</v>
-      </c>
-      <c r="I391" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -12552,18 +7888,6 @@
       <c r="E392" t="n">
         <v>45.68789996859787</v>
       </c>
-      <c r="F392" t="n">
-        <v>-0.0101543004950848</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0</v>
-      </c>
-      <c r="H392" t="n">
-        <v>-0.0534871241306257</v>
-      </c>
-      <c r="I392" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -12583,18 +7907,6 @@
       <c r="E393" t="n">
         <v>44.6417799745747</v>
       </c>
-      <c r="F393" t="n">
-        <v>0.007915478007863099</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0.0380706529581405</v>
-      </c>
-      <c r="I393" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -12614,18 +7926,6 @@
       <c r="E394" t="n">
         <v>48.1315532018733</v>
       </c>
-      <c r="F394" t="n">
-        <v>0.005763513204215</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0.0280103751849095</v>
-      </c>
-      <c r="I394" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -12645,18 +7945,6 @@
       <c r="E395" t="n">
         <v>47.86273994258824</v>
       </c>
-      <c r="F395" t="n">
-        <v>0.0138234331144992</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0.0646488222228527</v>
-      </c>
-      <c r="I395" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -12668,7 +7956,7 @@
         <v>21.70725109184032</v>
       </c>
       <c r="C396" t="n">
-        <v>43.48231530297885</v>
+        <v>43.86936815506643</v>
       </c>
       <c r="D396" t="n">
         <v>21.72432360275872</v>
@@ -12676,18 +7964,6 @@
       <c r="E396" t="n">
         <v>43.86936815506643</v>
       </c>
-      <c r="F396" t="n">
-        <v>0.0170725109184033</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.387052852087578</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0.07864888486419561</v>
-      </c>
-      <c r="I396" t="n">
-        <v>0.890138552629147</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -12707,18 +7983,6 @@
       <c r="E397" t="n">
         <v>46.79031306495148</v>
       </c>
-      <c r="F397" t="n">
-        <v>0.0146854054980707</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0.0684043028635348</v>
-      </c>
-      <c r="I397" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -12738,18 +8002,6 @@
       <c r="E398" t="n">
         <v>49.0114806224858</v>
       </c>
-      <c r="F398" t="n">
-        <v>0.0206037579797992</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0.09339713053159369</v>
-      </c>
-      <c r="I398" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -12769,18 +8021,6 @@
       <c r="E399" t="n">
         <v>49.12737304188397</v>
       </c>
-      <c r="F399" t="n">
-        <v>0.0184570955523817</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0.0844884232563464</v>
-      </c>
-      <c r="I399" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -12800,18 +8040,6 @@
       <c r="E400" t="n">
         <v>49.05390538807426</v>
       </c>
-      <c r="F400" t="n">
-        <v>0.0221359800998683</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0.0996505837996917</v>
-      </c>
-      <c r="I400" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -12830,18 +8058,6 @@
       </c>
       <c r="E401" t="n">
         <v>47.07782641380292</v>
-      </c>
-      <c r="F401" t="n">
-        <v>0.015067287159912</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0.07005847964553021</v>
-      </c>
-      <c r="I401" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
